--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Anodiam</t>
   </si>
@@ -97,9 +92,6 @@
     <t>Finished up to #15 Pricing slide</t>
   </si>
   <si>
-    <t>23/02/2021: 5:30 PM AUEST</t>
-  </si>
-  <si>
     <t>Icebreaker + Next Steps with Jayesh Debnath</t>
   </si>
   <si>
@@ -163,9 +155,6 @@
     <t>Chemistry</t>
   </si>
   <si>
-    <t>Soujanya</t>
-  </si>
-  <si>
     <t>23/02/2021: 3:30 PM AUEST</t>
   </si>
   <si>
@@ -206,6 +195,15 @@
   </si>
   <si>
     <t>Bikas Paul</t>
+  </si>
+  <si>
+    <t>Saujanya Gupta</t>
+  </si>
+  <si>
+    <t>Assignment: Create schema</t>
+  </si>
+  <si>
+    <t>23/02/2021: 10:30 PM AUEST</t>
   </si>
 </sst>
 </file>
@@ -335,6 +333,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,18 +353,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,31 +590,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -643,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>44250</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -692,7 +690,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12:I15"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -704,423 +702,430 @@
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>9</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>4</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>14</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>15</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>16</v>
-      </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>18</v>
-      </c>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>19</v>
-      </c>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
-        <v>23</v>
-      </c>
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>24</v>
-      </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>25</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Anodiam</t>
   </si>
@@ -89,9 +94,6 @@
     <t>Icebreaker</t>
   </si>
   <si>
-    <t>Finished up to #15 Pricing slide</t>
-  </si>
-  <si>
     <t>Icebreaker + Next Steps with Jayesh Debnath</t>
   </si>
   <si>
@@ -158,52 +160,64 @@
     <t>23/02/2021: 3:30 PM AUEST</t>
   </si>
   <si>
+    <t>Susmita Bhattacharya</t>
+  </si>
+  <si>
+    <t>24/02/2021: 5:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Anup Moitra</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>Amit Das</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Arati Chakraborty</t>
+  </si>
+  <si>
+    <t>Bikas Paul</t>
+  </si>
+  <si>
+    <t>Saujanya Gupta</t>
+  </si>
+  <si>
+    <t>Assignment: Create schema</t>
+  </si>
+  <si>
+    <t>Bapi Da's Daughter English teacher</t>
+  </si>
+  <si>
+    <t>Suddho CV, Digital Marketing Strategy</t>
+  </si>
+  <si>
+    <t>25/02/2021: 8:00 PM AUEST</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
     <t>Teacher 11-12</t>
   </si>
   <si>
-    <t>Monalisa Sarkar</t>
-  </si>
-  <si>
-    <t>24/02/2021: 3:30 PM AUEST</t>
-  </si>
-  <si>
-    <t>Susmita Bhattacharya</t>
-  </si>
-  <si>
-    <t>24/02/2021: 5:30 PM AUEST</t>
-  </si>
-  <si>
-    <t>Anup Moitra</t>
-  </si>
-  <si>
-    <t>Videographer</t>
-  </si>
-  <si>
-    <t>Amit Das</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Arati Chakraborty</t>
-  </si>
-  <si>
-    <t>Bikas Paul</t>
-  </si>
-  <si>
-    <t>Saujanya Gupta</t>
-  </si>
-  <si>
-    <t>Assignment: Create schema</t>
-  </si>
-  <si>
-    <t>23/02/2021: 10:30 PM AUEST</t>
+    <t>Santanu Mukharjee</t>
+  </si>
+  <si>
+    <t>28/02/2021: 8:00 PM AUEST</t>
+  </si>
+  <si>
+    <t>26/02/2021: 1:30 PM AUEST</t>
   </si>
 </sst>
 </file>
@@ -312,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,6 +356,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,31 +605,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -684,13 +699,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,44 +713,44 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
@@ -775,13 +790,13 @@
         <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -792,25 +807,25 @@
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -818,25 +833,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -844,16 +859,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>23</v>
@@ -864,155 +888,158 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>30</v>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>53</v>
@@ -1020,48 +1047,54 @@
       <c r="D13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>30</v>
+      <c r="H13" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="H14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
         <v>58</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>23</v>
@@ -1069,63 +1102,57 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Anodiam</t>
   </si>
@@ -218,6 +213,18 @@
   </si>
   <si>
     <t>26/02/2021: 1:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>27/02/2021: 10.30PM AUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/02/2021: 1.30PM AUST </t>
+  </si>
+  <si>
+    <t>01/03/2021: 4.00 PM AUST</t>
+  </si>
+  <si>
+    <t>Icebreaker + Next step to start to make syllabus</t>
   </si>
 </sst>
 </file>
@@ -326,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,6 +363,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,31 +613,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -705,7 +713,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,34 +731,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
@@ -876,11 +884,11 @@
       <c r="G6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
+      <c r="H6" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1007,9 +1015,13 @@
       <c r="D11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1047,6 +1059,15 @@
       <c r="D13" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
       <c r="H13" s="10" t="s">
         <v>65</v>
       </c>
@@ -1069,6 +1090,15 @@
       </c>
       <c r="D14" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>65</v>

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\BusinessManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StakeholderMgmt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MoM&amp;Agenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>Anodiam</t>
   </si>
@@ -158,9 +163,6 @@
     <t>Susmita Bhattacharya</t>
   </si>
   <si>
-    <t>24/02/2021: 5:30 PM AUEST</t>
-  </si>
-  <si>
     <t>Anup Moitra</t>
   </si>
   <si>
@@ -191,15 +193,9 @@
     <t>Assignment: Create schema</t>
   </si>
   <si>
-    <t>Bapi Da's Daughter English teacher</t>
-  </si>
-  <si>
     <t>Suddho CV, Digital Marketing Strategy</t>
   </si>
   <si>
-    <t>25/02/2021: 8:00 PM AUEST</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -212,9 +208,6 @@
     <t>28/02/2021: 8:00 PM AUEST</t>
   </si>
   <si>
-    <t>26/02/2021: 1:30 PM AUEST</t>
-  </si>
-  <si>
     <t>27/02/2021: 10.30PM AUST</t>
   </si>
   <si>
@@ -224,7 +217,19 @@
     <t>01/03/2021: 4.00 PM AUST</t>
   </si>
   <si>
-    <t>Icebreaker + Next step to start to make syllabus</t>
+    <t>TBD After 07/03/2021</t>
+  </si>
+  <si>
+    <t>Next Steps with Jayesh Debnath</t>
+  </si>
+  <si>
+    <t>Bapi Da's Daughter English teacher + Next Steps with Jayesh Debnath</t>
+  </si>
+  <si>
+    <t>Next step to start to make syllabus</t>
+  </si>
+  <si>
+    <t>Next step to start to make syllabus, Recommendation of other teachers</t>
   </si>
 </sst>
 </file>
@@ -333,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -363,6 +368,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,31 +619,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -713,7 +719,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,34 +737,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
@@ -876,19 +882,19 @@
         <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -928,7 +934,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>45</v>
@@ -937,7 +943,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>29</v>
@@ -999,7 +1005,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1013,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>23</v>
@@ -1034,13 +1040,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>60</v>
+      <c r="H12" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>24</v>
@@ -1051,16 +1057,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1068,31 +1074,29 @@
       <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>65</v>
+      <c r="H13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>23</v>
@@ -1100,14 +1104,11 @@
       <c r="G14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>65</v>
+      <c r="H14" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1115,19 +1116,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>64</v>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Anodiam</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Santanu Mukharjee</t>
   </si>
   <si>
-    <t>28/02/2021: 8:00 PM AUEST</t>
-  </si>
-  <si>
     <t>26/02/2021: 1:30 PM AUEST</t>
   </si>
   <si>
@@ -225,6 +222,12 @@
   </si>
   <si>
     <t>Icebreaker + Next step to start to make syllabus</t>
+  </si>
+  <si>
+    <t>28/02/2021: 8.30 PM AUST</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -365,6 +368,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,6 +383,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,31 +618,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -713,7 +718,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -731,34 +736,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
@@ -885,10 +890,10 @@
         <v>28</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1016,7 +1021,7 @@
         <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>23</v>
@@ -1060,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1069,7 +1074,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
@@ -1092,7 +1097,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>23</v>
@@ -1101,7 +1106,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
@@ -1123,11 +1128,20 @@
       <c r="D15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>23</v>
+      <c r="E15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Anodiam</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Icebreaker</t>
   </si>
   <si>
-    <t>Icebreaker + Next Steps with Jayesh Debnath</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Taniya Chatterjee</t>
-  </si>
-  <si>
     <t>21/02/2021: 6:00 PM AUEST</t>
   </si>
   <si>
@@ -217,19 +211,37 @@
     <t>01/03/2021: 4.00 PM AUST</t>
   </si>
   <si>
-    <t>TBD After 07/03/2021</t>
-  </si>
-  <si>
     <t>Next Steps with Jayesh Debnath</t>
   </si>
   <si>
     <t>Bapi Da's Daughter English teacher + Next Steps with Jayesh Debnath</t>
   </si>
   <si>
-    <t>Next step to start to make syllabus</t>
-  </si>
-  <si>
     <t>Next step to start to make syllabus, Recommendation of other teachers</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
+    <t>12/03/2021: 7:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>13/03/2021: 2:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Content Creation Kick Off</t>
+  </si>
+  <si>
+    <t>16/03/2021: 4:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Jayanta</t>
+  </si>
+  <si>
+    <t>05/03/2021: 8:30 PM AUEST</t>
   </si>
 </sst>
 </file>
@@ -338,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +380,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -619,31 +632,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -713,13 +726,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -737,34 +750,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
@@ -804,13 +817,13 @@
         <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,25 +834,25 @@
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -847,25 +860,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -873,28 +889,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -902,297 +918,308 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
       <c r="B9" s="10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="13"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="10" t="s">
         <v>67</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="B17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
       <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>Anodiam</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Debasish Dutta</t>
   </si>
   <si>
-    <t>20/02/2021: 3:30 PM AUEST</t>
-  </si>
-  <si>
     <t>Icebreaker</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>21/02/2021: 6:00 PM AUEST</t>
-  </si>
-  <si>
     <t>Videography</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Jayesh Debnath</t>
   </si>
   <si>
-    <t>22/02/2021: 4:30 PM AUEST</t>
-  </si>
-  <si>
     <t>Chemistry</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t xml:space="preserve">26/02/2021: 1.30PM AUST </t>
   </si>
   <si>
-    <t>01/03/2021: 4.00 PM AUST</t>
-  </si>
-  <si>
     <t>Next Steps with Jayesh Debnath</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>IRC</t>
   </si>
   <si>
-    <t>12/03/2021: 7:30 PM AUEST</t>
-  </si>
-  <si>
     <t>13/03/2021: 2:30 PM AUEST</t>
   </si>
   <si>
@@ -242,6 +227,45 @@
   </si>
   <si>
     <t>05/03/2021: 8:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Content Creation</t>
+  </si>
+  <si>
+    <t>12/03/2021: 3:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Recurring Sunday 3:00 PM AUEST</t>
+  </si>
+  <si>
+    <t>21/03/2021: 2:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Parag Biswas</t>
+  </si>
+  <si>
+    <t>22/03/2021: 7:00 PM AUEST</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Stakeholder Sub Group</t>
+  </si>
+  <si>
+    <t>9 CBSE ICSE</t>
+  </si>
+  <si>
+    <t>9 10 CBSE</t>
+  </si>
+  <si>
+    <t>To start with Planning Spreadsheet</t>
+  </si>
+  <si>
+    <t>Recurring Sunday 8:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>17/03/2021: 7:30 PM AUEST</t>
   </si>
 </sst>
 </file>
@@ -315,12 +339,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -350,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,6 +414,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +429,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,31 +667,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -726,107 +761,113 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="9" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -834,401 +875,435 @@
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>43</v>
+      <c r="B8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>73</v>
+      <c r="E9" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="G13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="I15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>60</v>
+      <c r="E16" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>46</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/BusinessManagement/StakeholderManagement.xlsx
+++ b/BusinessManagement/StakeholderManagement.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>Anodiam</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Teacher 9-10</t>
   </si>
   <si>
-    <t>Nayanika Sarkar</t>
-  </si>
-  <si>
-    <t>22/02/2021: 3:30 PM AUEST</t>
-  </si>
-  <si>
     <t>Jayesh Debnath</t>
   </si>
   <si>
@@ -208,12 +202,6 @@
     <t>Next step to start to make syllabus, Recommendation of other teachers</t>
   </si>
   <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>IRC</t>
-  </si>
-  <si>
     <t>13/03/2021: 2:30 PM AUEST</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>Parag Biswas</t>
   </si>
   <si>
-    <t>22/03/2021: 7:00 PM AUEST</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
@@ -266,6 +251,9 @@
   </si>
   <si>
     <t>17/03/2021: 7:30 PM AUEST</t>
+  </si>
+  <si>
+    <t>Noyonika Sarkar</t>
   </si>
 </sst>
 </file>
@@ -761,13 +749,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:K1"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -793,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>12</v>
@@ -852,19 +840,19 @@
         <v>21</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -875,28 +863,28 @@
         <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -911,22 +899,22 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -937,28 +925,28 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="J6" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -968,51 +956,51 @@
       <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="I7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>27</v>
@@ -1024,17 +1012,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>22</v>
@@ -1079,17 +1067,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>22</v>
@@ -1101,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" s="13"/>
     </row>
@@ -1110,17 +1098,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>22</v>
@@ -1132,7 +1120,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1140,17 +1128,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>22</v>
@@ -1162,138 +1150,117 @@
         <v>27</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="H16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
